--- a/data/checked/china/shandong/shandongCaseStatistics_20200215.xlsx
+++ b/data/checked/china/shandong/shandongCaseStatistics_20200215.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\2.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DAF3D5-C8D2-43D3-A418-B9F54CA96EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B1717-1E72-4E50-9D56-DAC9398C5FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -383,12 +383,12 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9370" uniqueCount="3294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9386" uniqueCount="3296">
   <si>
     <t>序号</t>
   </si>
@@ -10252,6 +10252,10 @@
   </si>
   <si>
     <t>吉木乃县</t>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>徐荣安</t>
@@ -10479,7 +10483,10 @@
   </si>
   <si>
     <t>林增敏</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
   </si>
 </sst>
 </file>
@@ -10490,7 +10497,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10590,26 +10597,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10646,7 +10633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10701,10 +10688,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10983,8 +10966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AF17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
@@ -11197,10 +11180,10 @@
         <v>43877.375</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="W2" s="12"/>
       <c r="Z2" s="21">
@@ -11210,19 +11193,22 @@
         <v>44</v>
       </c>
       <c r="AB2" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD2" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>3293</v>
+      <c r="AF2" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>3295</v>
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
@@ -11270,10 +11256,10 @@
         <v>43877.375</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z3" s="21">
         <v>43877.381944444445</v>
@@ -11282,19 +11268,22 @@
         <v>44</v>
       </c>
       <c r="AB3" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE3" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC3" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD3" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>3293</v>
+      <c r="AF3" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="23.5">
@@ -11347,10 +11336,10 @@
         <v>43877.375</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z4" s="21">
         <v>43877.381944444445</v>
@@ -11359,19 +11348,22 @@
         <v>44</v>
       </c>
       <c r="AB4" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE4" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC4" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>3293</v>
+      <c r="AF4" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="23.5">
@@ -11413,10 +11405,10 @@
         <v>43877.375</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z5" s="21">
         <v>43877.381944444445</v>
@@ -11425,19 +11417,22 @@
         <v>44</v>
       </c>
       <c r="AB5" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE5" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC5" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" s="24" t="s">
-        <v>3293</v>
+      <c r="AF5" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="23.5">
@@ -11480,10 +11475,10 @@
         <v>43877.375</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z6" s="21">
         <v>43877.381944444445</v>
@@ -11492,19 +11487,22 @@
         <v>44</v>
       </c>
       <c r="AB6" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE6" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC6" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD6" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>3293</v>
+      <c r="AF6" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="23.5">
@@ -11530,15 +11528,9 @@
         <v>50</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="18">
-        <v>46</v>
-      </c>
-      <c r="O7" s="18">
-        <v>13</v>
-      </c>
+      <c r="K7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="O7" s="18"/>
       <c r="S7" s="11" t="s">
         <v>43</v>
       </c>
@@ -11546,10 +11538,10 @@
         <v>43877.375</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z7" s="21">
         <v>43877.381944444445</v>
@@ -11558,19 +11550,22 @@
         <v>44</v>
       </c>
       <c r="AB7" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE7" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC7" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF7" s="24" t="s">
-        <v>3293</v>
+      <c r="AF7" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="23.5">
@@ -11597,16 +11592,13 @@
       </c>
       <c r="I8" s="19"/>
       <c r="K8" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="18">
-        <v>43</v>
-      </c>
-      <c r="N8" s="11">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O8" s="18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>43</v>
@@ -11615,10 +11607,10 @@
         <v>43877.375</v>
       </c>
       <c r="U8" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z8" s="21">
         <v>43877.381944444445</v>
@@ -11627,19 +11619,22 @@
         <v>44</v>
       </c>
       <c r="AB8" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE8" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC8" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF8" s="24" t="s">
-        <v>3293</v>
+      <c r="AF8" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="23.5">
@@ -11668,16 +11663,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N9" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>43</v>
@@ -11686,10 +11681,10 @@
         <v>43877.375</v>
       </c>
       <c r="U9" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z9" s="21">
         <v>43877.381944444445</v>
@@ -11698,19 +11693,22 @@
         <v>44</v>
       </c>
       <c r="AB9" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE9" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC9" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>3293</v>
+      <c r="AF9" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="23.5">
@@ -11739,16 +11737,16 @@
         <v>2</v>
       </c>
       <c r="K10" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="18">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N10" s="11">
         <v>3</v>
       </c>
       <c r="O10" s="18">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>43</v>
@@ -11757,10 +11755,10 @@
         <v>43877.375</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z10" s="21">
         <v>43877.381944444445</v>
@@ -11769,19 +11767,22 @@
         <v>44</v>
       </c>
       <c r="AB10" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE10" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC10" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD10" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>3293</v>
+      <c r="AF10" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="23.5">
@@ -11810,12 +11811,17 @@
       <c r="J11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
       <c r="M11" s="18">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="N11" s="11">
+        <v>3</v>
       </c>
       <c r="O11" s="18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>43</v>
@@ -11824,10 +11830,10 @@
         <v>43877.375</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V11" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z11" s="21">
         <v>43877.381944444445</v>
@@ -11836,19 +11842,22 @@
         <v>44</v>
       </c>
       <c r="AB11" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE11" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC11" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE11" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF11" s="24" t="s">
-        <v>3293</v>
+      <c r="AF11" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="23.5">
@@ -11874,14 +11883,12 @@
         <v>55</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="K12" s="19">
-        <v>1</v>
-      </c>
+      <c r="K12" s="19"/>
       <c r="M12" s="18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O12" s="18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>43</v>
@@ -11890,10 +11897,10 @@
         <v>43877.375</v>
       </c>
       <c r="U12" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V12" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z12" s="21">
         <v>43877.381944444445</v>
@@ -11902,19 +11909,22 @@
         <v>44</v>
       </c>
       <c r="AB12" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE12" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC12" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF12" s="24" t="s">
-        <v>3293</v>
+      <c r="AF12" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="23.5">
@@ -11943,16 +11953,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" s="18">
-        <v>47</v>
-      </c>
-      <c r="N13" s="11">
+        <v>16</v>
+      </c>
+      <c r="O13" s="18">
         <v>3</v>
-      </c>
-      <c r="O13" s="18">
-        <v>29</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>43</v>
@@ -11961,10 +11968,10 @@
         <v>43877.375</v>
       </c>
       <c r="U13" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z13" s="21">
         <v>43877.381944444445</v>
@@ -11973,19 +11980,22 @@
         <v>44</v>
       </c>
       <c r="AB13" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE13" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC13" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" s="24" t="s">
-        <v>3293</v>
+      <c r="AF13" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="23.5">
@@ -12014,15 +12024,17 @@
       <c r="J14" s="11">
         <v>1</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="19">
+        <v>4</v>
+      </c>
       <c r="M14" s="18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N14" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="20">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>43</v>
@@ -12031,10 +12043,10 @@
         <v>43877.375</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z14" s="21">
         <v>43877.381944444445</v>
@@ -12043,19 +12055,22 @@
         <v>44</v>
       </c>
       <c r="AB14" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE14" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC14" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD14" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE14" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF14" s="24" t="s">
-        <v>3293</v>
+      <c r="AF14" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="23.5">
@@ -12083,17 +12098,15 @@
       <c r="I15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="19"/>
+      <c r="M15" s="18">
+        <v>37</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5</v>
+      </c>
+      <c r="O15" s="18">
         <v>7</v>
-      </c>
-      <c r="M15" s="18">
-        <v>38</v>
-      </c>
-      <c r="N15" s="11">
-        <v>3</v>
-      </c>
-      <c r="O15" s="18">
-        <v>10</v>
       </c>
       <c r="P15" s="11">
         <v>1</v>
@@ -12105,10 +12118,10 @@
         <v>43877.375</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z15" s="21">
         <v>43877.381944444445</v>
@@ -12117,19 +12130,22 @@
         <v>44</v>
       </c>
       <c r="AB15" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE15" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC15" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD15" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF15" s="24" t="s">
-        <v>3293</v>
+      <c r="AF15" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>3295</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="23.5">
@@ -12156,13 +12172,16 @@
       </c>
       <c r="I16" s="19"/>
       <c r="K16" s="19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M16" s="18">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3</v>
       </c>
       <c r="O16" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>43</v>
@@ -12171,10 +12190,10 @@
         <v>43877.375</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z16" s="21">
         <v>43877.381944444445</v>
@@ -12183,22 +12202,25 @@
         <v>44</v>
       </c>
       <c r="AB16" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE16" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC16" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD16" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF16" s="24" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="23.5">
+      <c r="AF16" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="23.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -12222,13 +12244,13 @@
       </c>
       <c r="I17" s="19"/>
       <c r="K17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O17" s="18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>43</v>
@@ -12237,10 +12259,10 @@
         <v>43877.375</v>
       </c>
       <c r="U17" s="22" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="Z17" s="21">
         <v>43877.381944444445</v>
@@ -12249,22 +12271,25 @@
         <v>44</v>
       </c>
       <c r="AB17" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>43877.563194444447</v>
+      </c>
+      <c r="AE17" s="11" t="s">
         <v>3288</v>
       </c>
-      <c r="AC17" s="24" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>43877.446111111109</v>
-      </c>
-      <c r="AE17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF17" s="24" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AF17" s="11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -12285,6 +12310,15 @@
       </c>
       <c r="G18" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="11">
+        <v>18</v>
+      </c>
+      <c r="O18" s="11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -12296,7 +12330,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G19:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J17 L3:L17 N3:N17 I18:R1048576 P3:R17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 J2:J17 L3:L17 N3:N17 P3:R17 I18:J1048576 L18:R1048576 K19:K1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
